--- a/db/queries/predicted/NYSED_SRC2022-NATIVE-NATIVE-CodeS-queries-predicted.xlsx
+++ b/db/queries/predicted/NYSED_SRC2022-NATIVE-NATIVE-CodeS-queries-predicted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,11 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.1</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
@@ -504,14 +499,9 @@
           <t>tab_naturalness_modifier</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>query_stats</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
@@ -573,14 +563,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'institution_id'}, {'select element': '1'}, {'column': 'entity_name'}, {'select element': '1'}, {'column': 'level'}, {'table source item': '1'}, {'table': '[accountability_levels]'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'subgroup_name'}, {'predicate': '1'}, {'column': 'indicator'}, {'predicate': '1'}, {'column': 'entity_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
@@ -642,14 +627,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'subgroup_name'}, {'select element': '1'}, {'column': 'pct_not_tested'}, {'table source item': '1'}, {'table': '[annual_em_ela]'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'entity_name'}, {'predicate': '1'}, {'column': 'assessment_name'}, {'predicate': '1'}, {'column': 'year'}]</t>
-        </is>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
@@ -711,14 +691,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': '[annual_nysaa]'}, {'where': '1'}, {'predicate': '1'}, {'column': 'year'}]</t>
-        </is>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
@@ -780,14 +755,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'pupil_count_tot'}, {'select element': '1'}, {'column': 'federal_exp'}, {'select element': '1'}, {'column': 'per_federal_exp'}, {'table source item': '1'}, {'table': '[expenditures_per_pupil]'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'entity_name'}, {'predicate': '1'}, {'column': 'year'}]</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
@@ -849,14 +819,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'pupil_count_tot'}, {'select element': '1'}, {'column': 'federal_exp'}, {'select element': '1'}, {'column': 'per_federal_exp'}, {'select element': '1'}, {'column': 'subgroup_name'}, {'select element': '1'}, {'column': 'mean_score'}, {'table source item': '1'}, {'table': '[expenditures_per_pupil]'}, {'join': '1'}, {'table source item': '1'}, {'table': '[annual_em_math]'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'entity_cd'}, {'column': 'entity_cd'}, {'predicate': '1'}, {'column': 'year'}, {'column': 'year'}, {'composite-key-join': '1'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'entity_name'}, {'predicate': '1'}, {'column': 'assessment_name'}, {'predicate': '1'}, {'column': 'year'}]</t>
-        </is>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
@@ -918,14 +883,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'rate'}, {'select element': '1'}, {'column': 'grad_rate'}, {'table source item': '1'}, {'table': '[acc_hs_participation_rate]'}, {'join': '1'}, {'table source item': '1'}, {'table': '[acc_hs_graduation_rate]'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'entity_cd'}, {'column': 'entity_cd'}, {'predicate': '1'}, {'column': 'subgroup_name'}, {'column': 'subgroup_name'}, {'predicate': '1'}, {'column': 'year'}, {'column': 'year'}, {'predicate': '1'}, {'column': 'entity_name'}, {'column': 'entity_name'}, {'predicate': '1'}, {'column': 'institution_id'}, {'column': 'institution_id'}, {'composite-key-join': '1'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'entity_name'}, {'predicate': '1'}, {'column': 'subgroup_name'}, {'predicate': '1'}, {'column': 'year'}]</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
@@ -987,14 +947,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'enrollment'}, {'select element': '1'}, {'column': 'absent_count'}, {'select element': '1'}, {'column': 'absent_rate'}, {'table source item': '1'}, {'table': '[acc_em_chronic_absenteeism]'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'entity_name'}, {'predicate': '1'}, {'column': 'year'}, {'predicate': '1'}, {'column': 'subgroup_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
@@ -1056,14 +1011,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'subgroup_name'}, {'select element': '1'}, {'column': 'tested'}, {'select element': '1'}, {'column': 'per_level1'}, {'select element': '1'}, {'column': 'per_level2'}, {'select element': '1'}, {'column': 'per_level3'}, {'select element': '1'}, {'column': 'per_level4'}, {'select element': '1'}, {'column': 'per_level5'}, {'table source item': '1'}, {'table': '[annual_regents_exams]'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'entity_name'}, {'predicate': '1'}, {'column': 'year'}, {'predicate': '1'}, {'column': 'subject'}]</t>
-        </is>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
@@ -1125,14 +1075,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'overall_status'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': '[accountability_status]'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'year'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'entity_cd'}, {'table source item': '1'}, {'table': '[institution_grouping]'}, {'where': '1'}, {'predicate': '1'}, {'column': 'group_name'}, {'column': 'entity_cd'}, {'group by': '1'}, {'column': 'overall_status'}]</t>
-        </is>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
@@ -1194,14 +1139,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'overall_status'}, {'select element': '1'}, {'column': 'made_progress'}, {'table source item': '1'}, {'table': '[accountability_status]'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'entity_name'}, {'predicate': '1'}, {'column': 'year'}]</t>
-        </is>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
@@ -1263,14 +1203,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'core_cohort'}, {'select element': '1'}, {'column': 'weighted_cohort'}, {'table source item': '1'}, {'table': '[acc_em_core_and_weighted_performance]'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'entity_name'}, {'predicate': '1'}, {'column': 'subject'}, {'predicate': '1'}, {'column': 'subgroup_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
@@ -1332,14 +1267,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'entity_name'}, {'table source item': '1'}, {'table': '[acc_em_core_and_weighted_performance]'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'entity_cd'}, {'table source item': '1'}, {'table': '[acc_em_core_and_weighted_performance]'}, {'where': '1'}, {'predicate': '1'}, {'column': 'subgroup_name'}, {'negation': '1'}, {'column': 'entity_cd'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'entity_cd'}, {'table source item': '1'}, {'table': '[institution_grouping]'}, {'where': '1'}, {'predicate': '1'}, {'column': 'group_name'}, {'column': 'entity_cd'}]</t>
-        </is>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
@@ -1401,14 +1331,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'entity_cd'}, {'table source item': '1'}, {'table': '[acc_em_core_and_weighted_performance]'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'subgroup_name'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'entity_cd'}, {'table source item': '1'}, {'table': '[institution_grouping]'}, {'where': '1'}, {'predicate': '1'}, {'column': 'group_name'}, {'column': 'entity_cd'}]</t>
-        </is>
-      </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
@@ -1470,14 +1395,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'entity_name'}, {'select element': '1'}, {'column': 'ell_count'}, {'table source item': '1'}, {'table': '[acc_em_elp]'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'subgroup_name'}, {'predicate': '1'}, {'column': 'entity_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
@@ -1539,14 +1459,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': '[acc_em_elp]'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'subgroup_name'}, {'predicate': '1'}, {'column': 'ell_count'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'entity_cd'}, {'table source item': '1'}, {'table': '[institution_grouping]'}, {'where': '1'}, {'predicate': '1'}, {'column': 'group_name'}, {'column': 'entity_cd'}]</t>
-        </is>
-      </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
@@ -1608,14 +1523,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'ell_count'}, {'select element': '1'}, {'column': 'benchmark'}, {'select element': '1'}, {'column': 'progress_rate'}, {'select element': '1'}, {'column': 'success_ratio'}, {'table source item': '1'}, {'table': '[acc_em_elp]'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'entity_name'}, {'predicate': '1'}, {'column': 'subgroup_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
@@ -1677,14 +1587,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'entity_cd'}, {'table source item': '1'}, {'table': '[acc_em_nyseslat_for_participation]'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'nyseslat_part'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'entity_cd'}, {'table source item': '1'}, {'table': '[institution_grouping]'}, {'where': '1'}, {'predicate': '1'}, {'column': 'group_name'}, {'column': 'entity_cd'}]</t>
-        </is>
-      </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
@@ -1746,14 +1651,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'subject'}, {'table source item': '1'}, {'table': '[acc_em_nyseslat_for_participation]'}]</t>
-        </is>
-      </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
@@ -1815,14 +1715,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'entity_name'}, {'table source item': '1'}, {'table': '[acc_em_elp]'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'entity_cd'}, {'table source item': '1'}, {'table': '[acc_em_nyseslat_for_participation]'}, {'where': '1'}, {'predicate': '1'}, {'column': 'nyseslat_part'}, {'column': 'entity_cd'}, {'predicate': '1'}, {'column': 'ell_count'}, {'predicate': '1'}, {'column': 'subgroup_name'}, {'predicate': '1'}, {'column': 'level'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'entity_cd'}, {'table source item': '1'}, {'table': '[institution_grouping]'}, {'where': '1'}, {'predicate': '1'}, {'column': 'group_name'}, {'column': 'entity_cd'}]</t>
-        </is>
-      </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
@@ -1884,14 +1779,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'subgroup_name'}, {'select element': '1'}, {'column': 'subject'}, {'select element': '1'}, {'column': 'cohort'}, {'select element': '1'}, {'column': 'rate'}, {'table source item': '1'}, {'table': '[acc_em_participation_rate]'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'entity_name'}, {'predicate': '1'}, {'column': 'year'}]</t>
-        </is>
-      </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
@@ -1953,14 +1843,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'entity_cd'}, {'table source item': '1'}, {'table': '[acc_em_participation_rate]'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'met_95_percent'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'entity_cd'}, {'table source item': '1'}, {'table': '[institution_grouping]'}, {'where': '1'}, {'predicate': '1'}, {'column': 'group_name'}, {'column': 'entity_cd'}]</t>
-        </is>
-      </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
@@ -2022,14 +1907,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'rate'}, {'function': 'function'}, {'table source item': '1'}, {'table': '[acc_em_participation_rate]'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'rate'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'entity_cd'}, {'table source item': '1'}, {'table': '[institution_grouping]'}, {'where': '1'}, {'predicate': '1'}, {'column': 'group_name'}, {'column': 'entity_cd'}]</t>
-        </is>
-      </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
@@ -2091,14 +1971,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'subject'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'absent_rate'}, {'function': 'function'}, {'table source item': '1'}, {'table': '[acc_em_chronic_absenteeism]'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'absent_rate'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'entity_cd'}, {'table source item': '1'}, {'table': '[institution_grouping]'}, {'where': '1'}, {'predicate': '1'}, {'column': 'group_name'}, {'column': 'entity_cd'}, {'group by': '1'}, {'column': 'subject'}]</t>
-        </is>
-      </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
@@ -2160,14 +2035,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'entity_name'}, {'table source item': '1'}, {'table': '[acc_em_chronic_absenteeism]'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'subgroup_name'}, {'predicate': '1'}, {'column': 'absent_rate'}, {'order by': '1'}, {'column': 'absent_rate'}, {'function': 'function'}]</t>
-        </is>
-      </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
@@ -2229,14 +2099,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'entity_name'}, {'select element': '1'}, {'column': 'subgroup_name'}, {'select element': '1'}, {'column': 'enrollment'}, {'table source item': '1'}, {'table': '[acc_em_chronic_absenteeism]'}, {'join': '1'}, {'table source item': '1'}, {'table': '[institution_grouping]'}, {'predicate': '1'}, {'column': 'entity_cd'}, {'column': 'entity_cd'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'absent_rate'}, {'function': 'function'}, {'subquery': '1'}, {'select element': '1'}, {'function': 'max'}, {'column': 'absent_rate'}, {'function': 'function'}, {'table source item': '1'}, {'table': '[acc_em_chronic_absenteeism]'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'absent_rate'}, {'predicate': '1'}, {'column': 'year'}, {'predicate': '1'}, {'column': 'absent_rate'}, {'predicate': '1'}, {'column': 'year'}, {'predicate': '1'}, {'column': 'group_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
@@ -2298,14 +2163,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'subgroup_name'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'absent_rate'}, {'function': 'function'}, {'table source item': '1'}, {'table': '[acc_hs_chronic_absenteeism]'}, {'join': '1'}, {'table source item': '1'}, {'table': '[institution_grouping]'}, {'predicate': '1'}, {'column': 'entity_cd'}, {'column': 'entity_cd'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'absent_rate'}, {'predicate': '1'}, {'column': 'group_name'}, {'group by': '1'}, {'column': 'subgroup_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
@@ -2367,14 +2227,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'entity_name'}, {'select element': '1'}, {'column': 'absent_count'}, {'select element': '1'}, {'column': 'absent_rate'}, {'table source item': '1'}, {'table': '[acc_hs_chronic_absenteeism]'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'enrollment'}, {'predicate': '1'}, {'column': 'year'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'entity_cd'}, {'table source item': '1'}, {'table': '[institution_grouping]'}, {'where': '1'}, {'predicate': '1'}, {'column': 'group_name'}, {'column': 'entity_cd'}, {'predicate': '1'}, {'column': 'subgroup_name'}, {'order by': '1'}, {'column': 'enrollment'}, {'function': 'function'}]</t>
-        </is>
-      </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
@@ -2436,14 +2291,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'core_cohort'}, {'select element': '1'}, {'column': 'weighted_cohort'}, {'select element': '1'}, {'column': 'core_index'}, {'select element': '1'}, {'column': 'weighted_index'}, {'table source item': '1'}, {'table': '[acc_hs_core_and_weighted_performance]'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'year'}, {'predicate': '1'}, {'column': 'subject'}, {'predicate': '1'}, {'column': 'subgroup_name'}, {'predicate': '1'}, {'column': 'entity_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
@@ -2505,14 +2355,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'entity_name'}, {'table source item': '1'}, {'table': '[acc_hs_core_and_weighted_performance]'}, {'join': '1'}, {'table source item': '1'}, {'table': '[institution_grouping]'}, {'predicate': '1'}, {'column': 'entity_cd'}, {'column': 'entity_cd'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'weighted_index'}, {'predicate': '1'}, {'column': 'group_name'}, {'predicate': '1'}, {'column': 'subject'}, {'predicate': '1'}, {'column': 'subgroup_name'}, {'predicate': '1'}, {'column': 'year'}, {'order by': '1'}, {'column': 'weighted_index'}, {'function': 'function'}]</t>
-        </is>
-      </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
@@ -2574,14 +2419,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'entity_name'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'weighted_index'}, {'function': 'function'}, {'table source item': '1'}, {'table': '[acc_hs_core_and_weighted_performance]'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'weighted_index'}, {'predicate': '1'}, {'column': 'subject'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'entity_cd'}, {'table source item': '1'}, {'table': '[institution_grouping]'}, {'where': '1'}, {'predicate': '1'}, {'column': 'group_name'}, {'column': 'entity_cd'}, {'group by': '1'}, {'column': 'entity_name'}, {'order by': '1'}, {'function': 'avg'}, {'column': 'weighted_index'}, {'function': 'function'}]</t>
-        </is>
-      </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
@@ -2643,14 +2483,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'ell_count'}, {'select element': '1'}, {'column': 'benchmark'}, {'select element': '1'}, {'column': 'progress_rate'}, {'select element': '1'}, {'column': 'success_ratio'}, {'select element': '1'}, {'column': 'level'}, {'table source item': '1'}, {'table': '[acc_hs_elp]'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'entity_name'}, {'predicate': '1'}, {'column': 'subgroup_name'}, {'predicate': '1'}, {'column': 'year'}]</t>
-        </is>
-      </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
@@ -2712,14 +2547,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'subgroup_name'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'ell_count'}, {'function': 'function'}, {'table source item': '1'}, {'table': '[acc_hs_elp]'}, {'where': '1'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'entity_cd'}, {'table source item': '1'}, {'table': '[institution_grouping]'}, {'where': '1'}, {'predicate': '1'}, {'column': 'group_name'}, {'column': 'entity_cd'}, {'group by': '1'}, {'column': 'subgroup_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
@@ -2781,14 +2611,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'entity_name'}, {'select element': '1'}, {'column': 'ell_count'}, {'select element': '1'}, {'column': 'per_fed_state_local_exp'}, {'table source item': '1'}, {'table': '[acc_hs_elp]'}, {'join': '1'}, {'table source item': '1'}, {'table': '[expenditures_per_pupil]'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'entity_cd'}, {'column': 'entity_cd'}, {'predicate': '1'}, {'column': 'year'}, {'column': 'year'}, {'composite-key-join': '1'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'subgroup_name'}, {'predicate': '1'}, {'column': 'ell_count'}, {'predicate': '1'}, {'column': 'year'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'entity_cd'}, {'table source item': '1'}, {'table': '[institution_grouping]'}, {'where': '1'}, {'predicate': '1'}, {'column': 'group_name'}, {'column': 'entity_cd'}, {'order by': '1'}, {'column': 'ell_count'}, {'function': 'function'}]</t>
-        </is>
-      </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
@@ -2850,14 +2675,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'year'}, {'select element': '1'}, {'column': 'overall_status'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': '[accountability_status_by_subgroup]'}, {'where': '1'}, {'predicate': '1'}, {'column': 'subgroup_name'}, {'group by': '1'}, {'column': 'year'}, {'group by': '1'}, {'column': 'overall_status'}]</t>
-        </is>
-      </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
@@ -2919,14 +2739,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': '[accountability_status_by_subgroup]'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'school_type'}, {'predicate': '1'}, {'column': 'subgroup_name'}, {'predicate': '1'}, {'column': 'year'}]</t>
-        </is>
-      </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
@@ -2988,14 +2803,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'school_type'}, {'select element': '1'}, {'column': 'subgroup_name'}, {'select element': '1'}, {'column': 'overall_status'}, {'table source item': '1'}, {'table': '[accountability_status_by_subgroup]'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'year'}, {'predicate': '1'}, {'column': 'entity_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
@@ -3057,14 +2867,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'assessment_name'}, {'select element': '1'}, {'function': 'avg'}, {'column': '[level1_%tested]'}, {'function': 'function'}, {'select element': '1'}, {'function': 'avg'}, {'column': '[level2_%tested]'}, {'function': 'function'}, {'select element': '1'}, {'function': 'avg'}, {'column': '[level3_%tested]'}, {'function': 'function'}, {'select element': '1'}, {'function': 'avg'}, {'column': '[level4_%tested]'}, {'function': 'function'}, {'table source item': '1'}, {'table': '[annual_em_science]'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': '[level1_%tested]'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'entity_cd'}, {'table source item': '1'}, {'table': '[institution_grouping]'}, {'where': '1'}, {'predicate': '1'}, {'column': 'group_name'}, {'column': 'entity_cd'}, {'group by': '1'}, {'column': 'assessment_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
@@ -3126,14 +2931,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'subgroup_name'}, {'select element': '1'}, {'function': 'avg'}, {'column': '[level1_%tested]'}, {'function': 'function'}, {'select element': '1'}, {'function': 'avg'}, {'column': '[level2_%tested]'}, {'function': 'function'}, {'select element': '1'}, {'function': 'avg'}, {'column': '[level3_%tested]'}, {'function': 'function'}, {'select element': '1'}, {'function': 'avg'}, {'column': '[level4_%tested]'}, {'function': 'function'}, {'table source item': '1'}, {'table': '[annual_em_science]'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': '[level1_%tested]'}, {'predicate': '1'}, {'column': 'assessment_name'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'entity_cd'}, {'table source item': '1'}, {'table': '[institution_grouping]'}, {'where': '1'}, {'predicate': '1'}, {'column': 'group_name'}, {'column': 'entity_cd'}, {'group by': '1'}, {'column': 'subgroup_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
@@ -3195,14 +2995,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'subject'}, {'table source item': '1'}, {'table': '[annual_nyseslat]'}]</t>
-        </is>
-      </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
@@ -3264,14 +3059,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'per_exp'}, {'table source item': '1'}, {'table': '[annual_nyseslat]'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'subgroup_name'}, {'predicate': '1'}, {'column': 'subject'}, {'predicate': '1'}, {'column': 'entity_name'}, {'predicate': '1'}, {'column': 'year'}]</t>
-        </is>
-      </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
@@ -3333,14 +3123,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'per_ent'}, {'select element': '1'}, {'column': 'per_emer'}, {'select element': '1'}, {'column': 'per_tran'}, {'select element': '1'}, {'column': 'per_exp'}, {'table source item': '1'}, {'table': '[annual_nyseslat]'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'subgroup_name'}, {'predicate': '1'}, {'column': 'subject'}, {'predicate': '1'}, {'column': 'entity_name'}, {'predicate': '1'}, {'column': 'year'}]</t>
-        </is>
-      </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
@@ -3402,14 +3187,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'subject'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'per_ent'}, {'function': 'function'}, {'table source item': '1'}, {'table': '[annual_nyseslat]'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'per_ent'}, {'predicate': '1'}, {'column': 'year'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'entity_cd'}, {'table source item': '1'}, {'table': '[institution_grouping]'}, {'where': '1'}, {'predicate': '1'}, {'column': 'group_name'}, {'column': 'entity_cd'}, {'group by': '1'}, {'column': 'subject'}]</t>
-        </is>
-      </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
@@ -3471,14 +3251,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'subject'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'per_ent'}, {'function': 'function'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'per_emer'}, {'function': 'function'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'per_tran'}, {'function': 'function'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'per_exp'}, {'function': 'function'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'per_com'}, {'function': 'function'}, {'table source item': '1'}, {'table': '[annual_nyseslat]'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'per_ent'}, {'predicate': '1'}, {'column': 'year'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'entity_cd'}, {'table source item': '1'}, {'table': '[institution_grouping]'}, {'where': '1'}, {'predicate': '1'}, {'column': 'group_name'}, {'column': 'entity_cd'}, {'group by': '1'}, {'column': 'subject'}]</t>
-        </is>
-      </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
@@ -3540,14 +3315,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'num_ent'}, {'select element': '1'}, {'column': 'num_emer'}, {'select element': '1'}, {'column': 'num_tran'}, {'select element': '1'}, {'column': 'num_exp'}, {'table source item': '1'}, {'table': '[annual_nyseslat]'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'subgroup_name'}, {'predicate': '1'}, {'column': 'subject'}, {'predicate': '1'}, {'column': 'entity_name'}, {'predicate': '1'}, {'column': 'year'}]</t>
-        </is>
-      </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
@@ -3609,14 +3379,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'boces_name'}, {'select element': '1'}, {'function': 'count'}, {'column': 'school_name'}, {'table source item': '1'}, {'table': '[boces_and_n/rc]'}, {'where': '1'}, {'predicate': '1'}, {'column': 'year'}, {'group by': '1'}, {'column': 'boces_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
@@ -3678,14 +3443,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'county_name'}, {'select element': '1'}, {'function': 'count'}, {'column': 'school_name'}, {'table source item': '1'}, {'table': '[boces_and_n/rc]'}, {'where': '1'}, {'predicate': '1'}, {'column': 'year'}, {'group by': '1'}, {'column': 'county_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
@@ -3747,14 +3507,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'boces_name'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'per_federal_exp'}, {'function': 'function'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'per_state_local_exp'}, {'function': 'function'}, {'table source item': '1'}, {'table': '[boces_and_n/rc]'}, {'join': '1'}, {'table source item': '1'}, {'table': '[expenditures_per_pupil]'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'entity_cd'}, {'column': 'entity_cd'}, {'predicate': '1'}, {'column': 'year'}, {'column': 'year'}, {'composite-key-join': '1'}, {'where': '1'}, {'predicate': '1'}, {'column': 'year'}, {'group by': '1'}, {'column': 'boces_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
@@ -3816,14 +3571,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'boces_name'}, {'table source item': '1'}, {'table': '[boces_and_n/rc]'}]</t>
-        </is>
-      </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
@@ -3885,14 +3635,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'boces_name'}, {'select element': '1'}, {'function': 'count'}, {'column': 'county_name'}, {'table source item': '1'}, {'table': '[boces_and_n/rc]'}, {'group by': '1'}, {'column': 'boces_name'}, {'having': '1'}, {'predicate': '1'}, {'function': 'count'}, {'column': 'county_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
@@ -3954,14 +3699,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'num_teach'}, {'select element': '1'}, {'column': 'num_teach_inexp'}, {'select element': '1'}, {'column': 'per_teach_inexp'}, {'table source item': '1'}, {'table': '[inexperienced_teachers_and_principals]'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'entity_name'}, {'predicate': '1'}, {'column': 'year'}]</t>
-        </is>
-      </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
@@ -4023,14 +3763,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'entity_cd'}, {'select element': '1'}, {'column': 'entity_name'}, {'select element': '1'}, {'column': 'per_teach_inexp'}, {'table source item': '1'}, {'table': '[inexperienced_teachers_and_principals]'}, {'join': '1'}, {'table source item': '1'}, {'table': '[institution_grouping]'}, {'predicate': '1'}, {'column': 'entity_cd'}, {'column': 'entity_cd'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'year'}, {'predicate': '1'}, {'column': 'group_name'}, {'order by': '1'}, {'column': 'per_teach_inexp'}]</t>
-        </is>
-      </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
@@ -4092,14 +3827,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'district_name'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'per_teach_inexp'}, {'table source item': '1'}, {'table': '[inexperienced_teachers_and_principals]'}, {'join': '1'}, {'table source item': '1'}, {'table': '[boces_and_n/rc]'}, {'predicate': '1'}, {'column': 'entity_cd'}, {'column': 'entity_cd'}, {'group by': '1'}, {'column': 'district_name'}, {'order by': '1'}, {'function': 'avg'}, {'column': 'per_teach_inexp'}]</t>
-        </is>
-      </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
@@ -4161,14 +3891,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'tot_princ_low'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'tot_teach_low'}, {'table source item': '1'}, {'table': '[inexperienced_teachers_and_principals]'}]</t>
-        </is>
-      </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
@@ -4230,14 +3955,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'sum'}, {'column': 'out_4_yr_cnt'}, {'function': 'function'}, {'table source item': '1'}, {'table': '[postsecondary_enrollment]'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'subgroup_name'}, {'predicate': '1'}, {'column': 'entity_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
@@ -4299,14 +4019,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'per_nys_pub_2_yr'}, {'select element': '1'}, {'column': 'per_nys_pub_4_yr'}, {'table source item': '1'}, {'table': '[postsecondary_enrollment]'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'year'}, {'predicate': '1'}, {'column': 'entity_name'}, {'predicate': '1'}, {'column': 'subgroup_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
@@ -4368,14 +4083,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'entity_name'}, {'table source item': '1'}, {'table': '[teachers_teaching_out_of_certification]'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'year'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'entity_cd'}, {'table source item': '1'}, {'table': '[institution_grouping]'}, {'where': '1'}, {'predicate': '1'}, {'column': 'group_name'}, {'column': 'entity_cd'}, {'order by': '1'}, {'column': 'num_out_cert'}]</t>
-        </is>
-      </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
@@ -4437,14 +4147,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'num_out_cert'}, {'select element': '1'}, {'column': 'per_out_cert'}, {'table source item': '1'}, {'table': '[teachers_teaching_out_of_certification]'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'entity_name'}, {'predicate': '1'}, {'column': 'year'}]</t>
-        </is>
-      </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
@@ -4506,14 +4211,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'county_name'}, {'select element': '1'}, {'function': 'sum'}, {'column': 'num_out_cert'}, {'table source item': '1'}, {'table': '[teachers_teaching_out_of_certification]'}, {'join': '1'}, {'table source item': '1'}, {'table': '[boces_and_n/rc]'}, {'predicate': '1'}, {'column': 'entity_cd'}, {'column': 'entity_cd'}, {'group by': '1'}, {'column': 'county_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
@@ -4575,14 +4275,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'subgroup_name'}, {'select element': '1'}, {'column': 'cohort_count'}, {'select element': '1'}, {'column': 'test_count'}, {'select element': '1'}, {'column': 'level1_count'}, {'select element': '1'}, {'column': 'level2_count'}, {'select element': '1'}, {'column': 'level3_count'}, {'select element': '1'}, {'column': 'level4_count'}, {'table source item': '1'}, {'table': '[total_cohort_regents_exams]'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'entity_name'}, {'predicate': '1'}, {'column': 'cohort'}, {'predicate': '1'}, {'column': 'subgroup_name'}, {'predicate': '1'}, {'column': 'subject'}]</t>
-        </is>
-      </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
@@ -4644,14 +4339,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'entity_name'}, {'table source item': '1'}, {'table': '[total_cohort_regents_exams]'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'cohort'}, {'predicate': '1'}, {'column': 'subgroup_name'}, {'predicate': '1'}, {'column': 'subject'}, {'predicate': '1'}, {'column': '[level4_%cohort]'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'entity_cd'}, {'table source item': '1'}, {'table': '[institution_grouping]'}, {'where': '1'}, {'predicate': '1'}, {'column': 'group_name'}, {'column': 'entity_cd'}, {'order by': '1'}, {'column': '[level4_%cohort]'}, {'function': 'function'}]</t>
-        </is>
-      </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
@@ -4713,14 +4403,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'assessment_name'}, {'table source item': '1'}, {'table': '[annual_em_math]'}]</t>
-        </is>
-      </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
@@ -4782,14 +4467,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'total_count'}, {'table source item': '1'}, {'table': '[annual_em_science]'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'year'}, {'predicate': '1'}, {'column': 'subgroup_name'}, {'predicate': '1'}, {'column': 'assessment_name'}, {'predicate': '1'}, {'column': 'entity_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
@@ -4849,11 +4529,6 @@
       <c r="N64" t="inlineStr">
         <is>
           <t>NATIVE</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'entity_name'}, {'table source item': '1'}, {'table': '[postsecondary_enrollment]'}, {'where': '1'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'year'}, {'predicate': '1'}, {'column': 'subgroup_name'}, {'predicate': '1'}, {'column': 'per_out_4_yr'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'entity_cd'}, {'table source item': '1'}, {'table': '[institution_grouping]'}, {'where': '1'}, {'predicate': '1'}, {'column': 'group_name'}, {'column': 'entity_cd'}, {'order by': '1'}, {'column': 'per_out_4_yr'}, {'function': 'function'}]</t>
         </is>
       </c>
     </row>
